--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1839,18 +1839,132 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1887,126 +2001,90 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2033,84 +2111,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2475,10 +2475,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2492,86 +2492,86 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="136"/>
-      <c r="B1" s="139" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="103"/>
+      <c r="B1" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="119" t="s">
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="120"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="137"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="121" t="s">
+      <c r="F1" s="125"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="104"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="122"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="138"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="123" t="s">
+      <c r="F2" s="127"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="105"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="124"/>
-    </row>
-    <row r="4" spans="1:6" ht="62.25" customHeight="1" thickBot="1">
+      <c r="F3" s="129"/>
+    </row>
+    <row r="4" spans="1:11" ht="62.25" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="150"/>
-    </row>
-    <row r="5" spans="1:6" ht="21.75" customHeight="1" thickBot="1">
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
+    </row>
+    <row r="5" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="154"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A6" s="155" t="s">
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="121"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A6" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="130"/>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A7" s="156"/>
-      <c r="B7" s="131" t="s">
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="137"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A7" s="123"/>
+      <c r="B7" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="133"/>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A8" s="156"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="140"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A8" s="123"/>
       <c r="B8" s="102" t="s">
         <v>130</v>
       </c>
@@ -2580,8 +2580,8 @@
       <c r="E8" s="74"/>
       <c r="F8" s="75"/>
     </row>
-    <row r="9" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A9" s="156"/>
+    <row r="9" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A9" s="123"/>
       <c r="B9" s="102" t="s">
         <v>137</v>
       </c>
@@ -2590,8 +2590,8 @@
       <c r="E9" s="74"/>
       <c r="F9" s="75"/>
     </row>
-    <row r="10" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A10" s="156"/>
+    <row r="10" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A10" s="123"/>
       <c r="B10" s="102" t="s">
         <v>135</v>
       </c>
@@ -2600,8 +2600,8 @@
       <c r="E10" s="74"/>
       <c r="F10" s="75"/>
     </row>
-    <row r="11" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A11" s="156"/>
+    <row r="11" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A11" s="123"/>
       <c r="B11" s="102" t="s">
         <v>136</v>
       </c>
@@ -2610,8 +2610,8 @@
       <c r="E11" s="74"/>
       <c r="F11" s="75"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A12" s="156"/>
+    <row r="12" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A12" s="123"/>
       <c r="B12" s="102" t="s">
         <v>131</v>
       </c>
@@ -2620,8 +2620,8 @@
       <c r="E12" s="74"/>
       <c r="F12" s="75"/>
     </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A13" s="156"/>
+    <row r="13" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A13" s="123"/>
       <c r="B13" s="102" t="s">
         <v>132</v>
       </c>
@@ -2630,26 +2630,26 @@
       <c r="E13" s="74"/>
       <c r="F13" s="75"/>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A14" s="156"/>
+    <row r="14" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A14" s="123"/>
       <c r="B14" s="79"/>
       <c r="C14" s="74"/>
       <c r="D14" s="74"/>
       <c r="E14" s="74"/>
       <c r="F14" s="75"/>
     </row>
-    <row r="15" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A15" s="156"/>
-      <c r="B15" s="131" t="s">
+    <row r="15" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A15" s="123"/>
+      <c r="B15" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="133"/>
-    </row>
-    <row r="16" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A16" s="156"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="140"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A16" s="123"/>
       <c r="B16" s="76" t="s">
         <v>133</v>
       </c>
@@ -2657,9 +2657,12 @@
       <c r="D16" s="77"/>
       <c r="E16" s="77"/>
       <c r="F16" s="78"/>
+      <c r="K16" s="1">
+        <v>123</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A17" s="156"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="76" t="s">
         <v>134</v>
       </c>
@@ -2669,7 +2672,7 @@
       <c r="F17" s="78"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A18" s="156"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="79"/>
       <c r="C18" s="74"/>
       <c r="D18" s="74"/>
@@ -2677,7 +2680,7 @@
       <c r="F18" s="75"/>
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A19" s="156"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="79"/>
       <c r="C19" s="74"/>
       <c r="D19" s="74"/>
@@ -2685,7 +2688,7 @@
       <c r="F19" s="75"/>
     </row>
     <row r="20" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A20" s="156"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="6" t="s">
         <v>90</v>
       </c>
@@ -2695,7 +2698,7 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A21" s="156"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="79"/>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
@@ -2703,7 +2706,7 @@
       <c r="F21" s="75"/>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A22" s="156"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="79"/>
       <c r="C22" s="74"/>
       <c r="D22" s="74"/>
@@ -2714,18 +2717,18 @@
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="110"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="148"/>
     </row>
     <row r="24" spans="1:6" ht="24.75" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="134"/>
-      <c r="C24" s="135"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="142"/>
       <c r="D24" s="7" t="s">
         <v>30</v>
       </c>
@@ -2736,98 +2739,84 @@
       <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="112"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="150"/>
     </row>
     <row r="26" spans="1:6" ht="24.75" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="116" t="s">
+      <c r="B26" s="130"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="117"/>
-      <c r="F26" s="118"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="156"/>
     </row>
     <row r="27" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A27" s="103" t="s">
+      <c r="A27" s="143" t="s">
         <v>89</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="125" t="s">
+      <c r="C27" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="126"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="134"/>
       <c r="F27" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A28" s="104"/>
-      <c r="B28" s="113" t="s">
+      <c r="A28" s="144"/>
+      <c r="B28" s="151" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131"/>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A29" s="104"/>
-      <c r="B29" s="114"/>
+      <c r="A29" s="144"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="105"/>
-      <c r="E29" s="106"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="115"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="153"/>
       <c r="C30" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="106"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="131"/>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A31" s="104"/>
+      <c r="A31" s="144"/>
       <c r="B31" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="106"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="131"/>
       <c r="F31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="C31:E31"/>
@@ -2837,6 +2826,20 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2863,30 +2866,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="27" customHeight="1">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="184"/>
     </row>
     <row r="2" spans="1:77" ht="13.5" customHeight="1">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="172" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="22"/>
@@ -2943,7 +2946,7 @@
       </c>
     </row>
     <row r="3" spans="1:77" ht="13.5" customHeight="1">
-      <c r="A3" s="158"/>
+      <c r="A3" s="172"/>
       <c r="B3" s="13" t="s">
         <v>117</v>
       </c>
@@ -2999,7 +3002,7 @@
       </c>
     </row>
     <row r="4" spans="1:77">
-      <c r="A4" s="158"/>
+      <c r="A4" s="172"/>
       <c r="B4" s="13" t="s">
         <v>38</v>
       </c>
@@ -3055,7 +3058,7 @@
       </c>
     </row>
     <row r="5" spans="1:77">
-      <c r="A5" s="158"/>
+      <c r="A5" s="172"/>
       <c r="B5" s="15" t="s">
         <v>44</v>
       </c>
@@ -3120,32 +3123,32 @@
       </c>
     </row>
     <row r="6" spans="1:77">
-      <c r="A6" s="159"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="161"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="N6" s="186"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="186"/>
+      <c r="Q6" s="186"/>
+      <c r="R6" s="186"/>
+      <c r="S6" s="187"/>
     </row>
     <row r="7" spans="1:77" ht="13.5" customHeight="1">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="165"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="16" t="s">
         <v>39</v>
       </c>
@@ -3196,9 +3199,9 @@
       </c>
     </row>
     <row r="8" spans="1:77" ht="13.5" customHeight="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="167"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="193"/>
       <c r="D8" s="16">
         <f>D5</f>
         <v>0</v>
@@ -3265,28 +3268,28 @@
       </c>
     </row>
     <row r="9" spans="1:77">
-      <c r="A9" s="171"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
-      <c r="M9" s="172"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="172"/>
-      <c r="S9" s="173"/>
+      <c r="A9" s="169"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="170"/>
+      <c r="S9" s="171"/>
     </row>
     <row r="10" spans="1:77">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="172" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -3346,7 +3349,7 @@
       <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:77">
-      <c r="A11" s="158"/>
+      <c r="A11" s="172"/>
       <c r="B11" s="16" t="str">
         <f>D3</f>
         <v>45UH主相</v>
@@ -3376,7 +3379,7 @@
       <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:77">
-      <c r="A12" s="158"/>
+      <c r="A12" s="172"/>
       <c r="B12" s="16" t="str">
         <f>D4</f>
         <v>45UH辅相</v>
@@ -3406,7 +3409,7 @@
       <c r="T12" s="11"/>
     </row>
     <row r="13" spans="1:77">
-      <c r="A13" s="158"/>
+      <c r="A13" s="172"/>
       <c r="B13" s="16">
         <f>D5</f>
         <v>0</v>
@@ -3436,7 +3439,7 @@
       <c r="T13" s="11"/>
     </row>
     <row r="14" spans="1:77">
-      <c r="A14" s="158"/>
+      <c r="A14" s="172"/>
       <c r="B14" s="16">
         <f>B13</f>
         <v>0</v>
@@ -3466,53 +3469,53 @@
       <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:77" ht="14.25" thickBot="1">
-      <c r="A15" s="174" t="s">
+      <c r="A15" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="174"/>
-      <c r="M15" s="174"/>
-      <c r="N15" s="174"/>
-      <c r="O15" s="174"/>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="174"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="174"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="173"/>
+      <c r="S15" s="173"/>
       <c r="T15" s="11"/>
     </row>
     <row r="16" spans="1:77" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A16" s="175" t="s">
+      <c r="A16" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="176"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="176"/>
-      <c r="M16" s="176"/>
-      <c r="N16" s="176"/>
-      <c r="O16" s="176"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="175" t="s">
+      <c r="B16" s="175"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="174" t="s">
         <v>124</v>
       </c>
-      <c r="R16" s="176"/>
-      <c r="S16" s="177"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="176"/>
       <c r="T16" s="50" t="s">
         <v>48</v>
       </c>
@@ -3625,7 +3628,7 @@
       <c r="BY16" s="67"/>
     </row>
     <row r="17" spans="1:77" ht="14.25">
-      <c r="A17" s="178" t="s">
+      <c r="A17" s="159" t="s">
         <v>120</v>
       </c>
       <c r="B17" s="82" t="s">
@@ -3637,26 +3640,26 @@
       <c r="D17" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="180" t="s">
+      <c r="E17" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180" t="s">
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180" t="s">
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="181" t="s">
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="O17" s="182"/>
-      <c r="P17" s="183"/>
+      <c r="O17" s="179"/>
+      <c r="P17" s="180"/>
       <c r="Q17" s="68" t="s">
         <v>101</v>
       </c>
@@ -3728,7 +3731,7 @@
       <c r="BY17" s="49"/>
     </row>
     <row r="18" spans="1:77" ht="14.25" thickBot="1">
-      <c r="A18" s="179"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="14">
         <f>D8</f>
         <v>0</v>
@@ -3849,24 +3852,24 @@
       <c r="BY18" s="33"/>
     </row>
     <row r="19" spans="1:77" ht="14.25" thickBot="1">
-      <c r="A19" s="184" t="s">
+      <c r="A19" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="185"/>
-      <c r="C19" s="185"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="185"/>
-      <c r="K19" s="185"/>
-      <c r="L19" s="185"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="185"/>
-      <c r="O19" s="185"/>
-      <c r="P19" s="185"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="182"/>
+      <c r="M19" s="182"/>
+      <c r="N19" s="182"/>
+      <c r="O19" s="182"/>
+      <c r="P19" s="182"/>
       <c r="W19" s="94" t="s">
         <v>105</v>
       </c>
@@ -3914,7 +3917,7 @@
       </c>
     </row>
     <row r="20" spans="1:77">
-      <c r="A20" s="178" t="s">
+      <c r="A20" s="159" t="s">
         <v>121</v>
       </c>
       <c r="B20" s="82" t="s">
@@ -3926,21 +3929,21 @@
       <c r="D20" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="180" t="s">
+      <c r="E20" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180" t="s">
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="180" t="s">
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="180"/>
-      <c r="M20" s="186"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="183"/>
       <c r="N20" s="82" t="s">
         <v>80</v>
       </c>
@@ -4019,7 +4022,7 @@
       <c r="BY20" s="32"/>
     </row>
     <row r="21" spans="1:77">
-      <c r="A21" s="179"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="14">
         <f>B18</f>
         <v>0</v>
@@ -4121,24 +4124,24 @@
       <c r="BY21" s="32"/>
     </row>
     <row r="22" spans="1:77" ht="27.75" thickBot="1">
-      <c r="A22" s="168" t="s">
+      <c r="A22" s="166" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="169"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="169"/>
-      <c r="N22" s="169"/>
-      <c r="O22" s="169"/>
-      <c r="P22" s="170"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="167"/>
+      <c r="O22" s="167"/>
+      <c r="P22" s="168"/>
       <c r="Q22" s="89"/>
       <c r="R22" s="89"/>
       <c r="S22" s="89"/>
@@ -4197,7 +4200,7 @@
       <c r="BY22" s="32"/>
     </row>
     <row r="23" spans="1:77">
-      <c r="A23" s="187" t="s">
+      <c r="A23" s="157" t="s">
         <v>100</v>
       </c>
       <c r="B23" s="68" t="s">
@@ -4280,7 +4283,7 @@
       <c r="AK23" s="29"/>
     </row>
     <row r="24" spans="1:77" ht="14.25" thickBot="1">
-      <c r="A24" s="179"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="14">
         <f>E14</f>
         <v>0</v>
@@ -4381,52 +4384,52 @@
       <c r="AK24" s="31"/>
     </row>
     <row r="25" spans="1:77" ht="17.25" customHeight="1">
-      <c r="A25" s="178" t="s">
+      <c r="A25" s="159" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="189"/>
-      <c r="C25" s="189"/>
-      <c r="D25" s="189"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="189"/>
-      <c r="I25" s="189"/>
-      <c r="J25" s="189"/>
-      <c r="K25" s="189"/>
-      <c r="L25" s="189"/>
-      <c r="M25" s="189"/>
-      <c r="N25" s="189"/>
-      <c r="O25" s="189"/>
-      <c r="P25" s="189"/>
-      <c r="Q25" s="189"/>
-      <c r="R25" s="189"/>
-      <c r="S25" s="190"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="161"/>
+      <c r="S25" s="162"/>
     </row>
     <row r="26" spans="1:77" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A26" s="188"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="192"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="192"/>
-      <c r="M26" s="192"/>
-      <c r="N26" s="192"/>
-      <c r="O26" s="192"/>
-      <c r="P26" s="192"/>
-      <c r="Q26" s="192"/>
-      <c r="R26" s="192"/>
-      <c r="S26" s="193"/>
+      <c r="A26" s="160"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="164"/>
+      <c r="S26" s="165"/>
     </row>
     <row r="27" spans="1:77" ht="14.25" thickBot="1"/>
     <row r="28" spans="1:77">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="159" t="s">
         <v>122</v>
       </c>
       <c r="B28" s="82" t="s">
@@ -4440,7 +4443,7 @@
       </c>
     </row>
     <row r="29" spans="1:77">
-      <c r="A29" s="179"/>
+      <c r="A29" s="158"/>
       <c r="B29" s="13">
         <f>B24</f>
         <v>0</v>
@@ -4455,11 +4458,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:S25"/>
-    <mergeCell ref="B26:S26"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A9:S9"/>
     <mergeCell ref="A10:A14"/>
@@ -4476,11 +4479,11 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:M20"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:S6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:S25"/>
+    <mergeCell ref="B26:S26"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="U16:U17">

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="设计" sheetId="8" r:id="rId1"/>
     <sheet name="配方-双合金1批次" sheetId="14" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1839,6 +1840,87 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1920,96 +2002,99 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2027,90 +2112,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2477,7 +2478,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -2493,85 +2494,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="103"/>
-      <c r="B1" s="106" t="s">
+      <c r="A1" s="130"/>
+      <c r="B1" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="124" t="s">
+      <c r="C1" s="134"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="125"/>
+      <c r="F1" s="152"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="104"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="126" t="s">
+      <c r="A2" s="131"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="127"/>
+      <c r="F2" s="154"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="105"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="128" t="s">
+      <c r="A3" s="132"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="129"/>
+      <c r="F3" s="156"/>
     </row>
     <row r="4" spans="1:11" ht="62.25" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="117"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
     </row>
     <row r="5" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="148"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="137"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="124"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A7" s="123"/>
-      <c r="B7" s="138" t="s">
+      <c r="A7" s="150"/>
+      <c r="B7" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="140"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="127"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A8" s="123"/>
+      <c r="A8" s="150"/>
       <c r="B8" s="102" t="s">
         <v>130</v>
       </c>
@@ -2581,7 +2582,7 @@
       <c r="F8" s="75"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A9" s="123"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="102" t="s">
         <v>137</v>
       </c>
@@ -2591,7 +2592,7 @@
       <c r="F9" s="75"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A10" s="123"/>
+      <c r="A10" s="150"/>
       <c r="B10" s="102" t="s">
         <v>135</v>
       </c>
@@ -2601,7 +2602,7 @@
       <c r="F10" s="75"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A11" s="123"/>
+      <c r="A11" s="150"/>
       <c r="B11" s="102" t="s">
         <v>136</v>
       </c>
@@ -2611,7 +2612,7 @@
       <c r="F11" s="75"/>
     </row>
     <row r="12" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A12" s="123"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="102" t="s">
         <v>131</v>
       </c>
@@ -2621,7 +2622,7 @@
       <c r="F12" s="75"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A13" s="123"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="102" t="s">
         <v>132</v>
       </c>
@@ -2631,7 +2632,7 @@
       <c r="F13" s="75"/>
     </row>
     <row r="14" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A14" s="123"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="79"/>
       <c r="C14" s="74"/>
       <c r="D14" s="74"/>
@@ -2639,17 +2640,17 @@
       <c r="F14" s="75"/>
     </row>
     <row r="15" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A15" s="123"/>
-      <c r="B15" s="138" t="s">
+      <c r="A15" s="150"/>
+      <c r="B15" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="140"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A16" s="123"/>
+      <c r="A16" s="150"/>
       <c r="B16" s="76" t="s">
         <v>133</v>
       </c>
@@ -2662,7 +2663,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A17" s="123"/>
+      <c r="A17" s="150"/>
       <c r="B17" s="76" t="s">
         <v>134</v>
       </c>
@@ -2672,7 +2673,7 @@
       <c r="F17" s="78"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A18" s="123"/>
+      <c r="A18" s="150"/>
       <c r="B18" s="79"/>
       <c r="C18" s="74"/>
       <c r="D18" s="74"/>
@@ -2680,7 +2681,7 @@
       <c r="F18" s="75"/>
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A19" s="123"/>
+      <c r="A19" s="150"/>
       <c r="B19" s="79"/>
       <c r="C19" s="74"/>
       <c r="D19" s="74"/>
@@ -2688,7 +2689,7 @@
       <c r="F19" s="75"/>
     </row>
     <row r="20" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A20" s="123"/>
+      <c r="A20" s="150"/>
       <c r="B20" s="6" t="s">
         <v>90</v>
       </c>
@@ -2698,7 +2699,7 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A21" s="123"/>
+      <c r="A21" s="150"/>
       <c r="B21" s="79"/>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
@@ -2706,7 +2707,7 @@
       <c r="F21" s="75"/>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A22" s="123"/>
+      <c r="A22" s="150"/>
       <c r="B22" s="79"/>
       <c r="C22" s="74"/>
       <c r="D22" s="74"/>
@@ -2717,18 +2718,18 @@
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="146"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="148"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="110"/>
     </row>
     <row r="24" spans="1:6" ht="24.75" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="141"/>
-      <c r="C24" s="142"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="7" t="s">
         <v>30</v>
       </c>
@@ -2739,95 +2740,84 @@
       <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="150"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="112"/>
     </row>
     <row r="26" spans="1:6" ht="24.75" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="130"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="154" t="s">
+      <c r="B26" s="105"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="155"/>
-      <c r="F26" s="156"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="118"/>
     </row>
     <row r="27" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A27" s="143" t="s">
+      <c r="A27" s="103" t="s">
         <v>89</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="134"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A28" s="144"/>
-      <c r="B28" s="151" t="s">
+      <c r="A28" s="104"/>
+      <c r="B28" s="113" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="106"/>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A29" s="144"/>
-      <c r="B29" s="152"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="106"/>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A30" s="144"/>
-      <c r="B30" s="153"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="106"/>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A31" s="144"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="130"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="131"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="106"/>
       <c r="F31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="C27:E27"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B15:F15"/>
@@ -2840,6 +2830,17 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2866,30 +2867,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="27" customHeight="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="184"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
     </row>
     <row r="2" spans="1:77" ht="13.5" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="158" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="22"/>
@@ -2946,7 +2947,7 @@
       </c>
     </row>
     <row r="3" spans="1:77" ht="13.5" customHeight="1">
-      <c r="A3" s="172"/>
+      <c r="A3" s="158"/>
       <c r="B3" s="13" t="s">
         <v>117</v>
       </c>
@@ -3002,7 +3003,7 @@
       </c>
     </row>
     <row r="4" spans="1:77">
-      <c r="A4" s="172"/>
+      <c r="A4" s="158"/>
       <c r="B4" s="13" t="s">
         <v>38</v>
       </c>
@@ -3058,7 +3059,7 @@
       </c>
     </row>
     <row r="5" spans="1:77">
-      <c r="A5" s="172"/>
+      <c r="A5" s="158"/>
       <c r="B5" s="15" t="s">
         <v>44</v>
       </c>
@@ -3123,32 +3124,32 @@
       </c>
     </row>
     <row r="6" spans="1:77">
-      <c r="A6" s="185"/>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="186"/>
-      <c r="M6" s="186"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="186"/>
-      <c r="R6" s="186"/>
-      <c r="S6" s="187"/>
+      <c r="A6" s="159"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="160"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="161"/>
     </row>
     <row r="7" spans="1:77" ht="13.5" customHeight="1">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="190"/>
-      <c r="C7" s="191"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
       <c r="D7" s="16" t="s">
         <v>39</v>
       </c>
@@ -3199,9 +3200,9 @@
       </c>
     </row>
     <row r="8" spans="1:77" ht="13.5" customHeight="1">
-      <c r="A8" s="189"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="193"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="167"/>
       <c r="D8" s="16">
         <f>D5</f>
         <v>0</v>
@@ -3268,28 +3269,28 @@
       </c>
     </row>
     <row r="9" spans="1:77">
-      <c r="A9" s="169"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="171"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="172"/>
+      <c r="N9" s="172"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="172"/>
+      <c r="S9" s="173"/>
     </row>
     <row r="10" spans="1:77">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="158" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -3349,7 +3350,7 @@
       <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:77">
-      <c r="A11" s="172"/>
+      <c r="A11" s="158"/>
       <c r="B11" s="16" t="str">
         <f>D3</f>
         <v>45UH主相</v>
@@ -3379,7 +3380,7 @@
       <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:77">
-      <c r="A12" s="172"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="16" t="str">
         <f>D4</f>
         <v>45UH辅相</v>
@@ -3409,7 +3410,7 @@
       <c r="T12" s="11"/>
     </row>
     <row r="13" spans="1:77">
-      <c r="A13" s="172"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="16">
         <f>D5</f>
         <v>0</v>
@@ -3439,7 +3440,7 @@
       <c r="T13" s="11"/>
     </row>
     <row r="14" spans="1:77">
-      <c r="A14" s="172"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="16">
         <f>B13</f>
         <v>0</v>
@@ -3469,53 +3470,53 @@
       <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:77" ht="14.25" thickBot="1">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="173"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="173"/>
-      <c r="S15" s="173"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
+      <c r="M15" s="174"/>
+      <c r="N15" s="174"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="174"/>
+      <c r="S15" s="174"/>
       <c r="T15" s="11"/>
     </row>
     <row r="16" spans="1:77" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A16" s="174" t="s">
+      <c r="A16" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="175"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="175"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="175"/>
-      <c r="O16" s="175"/>
-      <c r="P16" s="176"/>
-      <c r="Q16" s="174" t="s">
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="176"/>
+      <c r="M16" s="176"/>
+      <c r="N16" s="176"/>
+      <c r="O16" s="176"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="R16" s="175"/>
-      <c r="S16" s="176"/>
+      <c r="R16" s="176"/>
+      <c r="S16" s="177"/>
       <c r="T16" s="50" t="s">
         <v>48</v>
       </c>
@@ -3628,7 +3629,7 @@
       <c r="BY16" s="67"/>
     </row>
     <row r="17" spans="1:77" ht="14.25">
-      <c r="A17" s="159" t="s">
+      <c r="A17" s="178" t="s">
         <v>120</v>
       </c>
       <c r="B17" s="82" t="s">
@@ -3640,26 +3641,26 @@
       <c r="D17" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="177" t="s">
+      <c r="E17" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177" t="s">
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177" t="s">
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="177"/>
-      <c r="M17" s="177"/>
-      <c r="N17" s="178" t="s">
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="O17" s="179"/>
-      <c r="P17" s="180"/>
+      <c r="O17" s="182"/>
+      <c r="P17" s="183"/>
       <c r="Q17" s="68" t="s">
         <v>101</v>
       </c>
@@ -3731,7 +3732,7 @@
       <c r="BY17" s="49"/>
     </row>
     <row r="18" spans="1:77" ht="14.25" thickBot="1">
-      <c r="A18" s="158"/>
+      <c r="A18" s="179"/>
       <c r="B18" s="14">
         <f>D8</f>
         <v>0</v>
@@ -3852,24 +3853,24 @@
       <c r="BY18" s="33"/>
     </row>
     <row r="19" spans="1:77" ht="14.25" thickBot="1">
-      <c r="A19" s="181" t="s">
+      <c r="A19" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="182"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="182"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="182"/>
-      <c r="O19" s="182"/>
-      <c r="P19" s="182"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="185"/>
+      <c r="M19" s="185"/>
+      <c r="N19" s="185"/>
+      <c r="O19" s="185"/>
+      <c r="P19" s="185"/>
       <c r="W19" s="94" t="s">
         <v>105</v>
       </c>
@@ -3917,7 +3918,7 @@
       </c>
     </row>
     <row r="20" spans="1:77">
-      <c r="A20" s="159" t="s">
+      <c r="A20" s="178" t="s">
         <v>121</v>
       </c>
       <c r="B20" s="82" t="s">
@@ -3929,21 +3930,21 @@
       <c r="D20" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="177" t="s">
+      <c r="E20" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177" t="s">
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="177"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="177" t="s">
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="177"/>
-      <c r="M20" s="183"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="186"/>
       <c r="N20" s="82" t="s">
         <v>80</v>
       </c>
@@ -4022,7 +4023,7 @@
       <c r="BY20" s="32"/>
     </row>
     <row r="21" spans="1:77">
-      <c r="A21" s="158"/>
+      <c r="A21" s="179"/>
       <c r="B21" s="14">
         <f>B18</f>
         <v>0</v>
@@ -4124,24 +4125,24 @@
       <c r="BY21" s="32"/>
     </row>
     <row r="22" spans="1:77" ht="27.75" thickBot="1">
-      <c r="A22" s="166" t="s">
+      <c r="A22" s="168" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="167"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="167"/>
-      <c r="K22" s="167"/>
-      <c r="L22" s="167"/>
-      <c r="M22" s="167"/>
-      <c r="N22" s="167"/>
-      <c r="O22" s="167"/>
-      <c r="P22" s="168"/>
+      <c r="B22" s="169"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="169"/>
+      <c r="L22" s="169"/>
+      <c r="M22" s="169"/>
+      <c r="N22" s="169"/>
+      <c r="O22" s="169"/>
+      <c r="P22" s="170"/>
       <c r="Q22" s="89"/>
       <c r="R22" s="89"/>
       <c r="S22" s="89"/>
@@ -4200,7 +4201,7 @@
       <c r="BY22" s="32"/>
     </row>
     <row r="23" spans="1:77">
-      <c r="A23" s="157" t="s">
+      <c r="A23" s="187" t="s">
         <v>100</v>
       </c>
       <c r="B23" s="68" t="s">
@@ -4283,7 +4284,7 @@
       <c r="AK23" s="29"/>
     </row>
     <row r="24" spans="1:77" ht="14.25" thickBot="1">
-      <c r="A24" s="158"/>
+      <c r="A24" s="179"/>
       <c r="B24" s="14">
         <f>E14</f>
         <v>0</v>
@@ -4384,52 +4385,52 @@
       <c r="AK24" s="31"/>
     </row>
     <row r="25" spans="1:77" ht="17.25" customHeight="1">
-      <c r="A25" s="159" t="s">
+      <c r="A25" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="161"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="161"/>
-      <c r="S25" s="162"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="189"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="189"/>
+      <c r="L25" s="189"/>
+      <c r="M25" s="189"/>
+      <c r="N25" s="189"/>
+      <c r="O25" s="189"/>
+      <c r="P25" s="189"/>
+      <c r="Q25" s="189"/>
+      <c r="R25" s="189"/>
+      <c r="S25" s="190"/>
     </row>
     <row r="26" spans="1:77" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A26" s="160"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="164"/>
-      <c r="O26" s="164"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="164"/>
-      <c r="S26" s="165"/>
+      <c r="A26" s="188"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="192"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="192"/>
+      <c r="K26" s="192"/>
+      <c r="L26" s="192"/>
+      <c r="M26" s="192"/>
+      <c r="N26" s="192"/>
+      <c r="O26" s="192"/>
+      <c r="P26" s="192"/>
+      <c r="Q26" s="192"/>
+      <c r="R26" s="192"/>
+      <c r="S26" s="193"/>
     </row>
     <row r="27" spans="1:77" ht="14.25" thickBot="1"/>
     <row r="28" spans="1:77">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="178" t="s">
         <v>122</v>
       </c>
       <c r="B28" s="82" t="s">
@@ -4443,7 +4444,7 @@
       </c>
     </row>
     <row r="29" spans="1:77">
-      <c r="A29" s="158"/>
+      <c r="A29" s="179"/>
       <c r="B29" s="13">
         <f>B24</f>
         <v>0</v>
@@ -4458,11 +4459,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:S6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:S25"/>
+    <mergeCell ref="B26:S26"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A9:S9"/>
     <mergeCell ref="A10:A14"/>
@@ -4479,11 +4480,11 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:M20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:S25"/>
-    <mergeCell ref="B26:S26"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="U16:U17">
@@ -4493,4 +4494,26 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/excel.xlsx
+++ b/excel.xlsx
@@ -4498,10 +4498,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4511,6 +4511,11 @@
         <v>123</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>456</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -4498,10 +4498,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4516,6 +4516,11 @@
         <v>456</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>789</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1840,6 +1840,111 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1897,117 +2002,90 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2034,84 +2112,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2494,85 +2494,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="130"/>
-      <c r="B1" s="133" t="s">
+      <c r="A1" s="111"/>
+      <c r="B1" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="151" t="s">
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="152"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="131"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="153" t="s">
+      <c r="A2" s="112"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="154"/>
+      <c r="F2" s="135"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="132"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="155" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="156"/>
+      <c r="F3" s="137"/>
     </row>
     <row r="4" spans="1:11" ht="62.25" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="144"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
     </row>
     <row r="5" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="148"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="124"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A7" s="150"/>
-      <c r="B7" s="125" t="s">
+      <c r="A7" s="131"/>
+      <c r="B7" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="127"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="108"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A8" s="150"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="102" t="s">
         <v>130</v>
       </c>
@@ -2582,7 +2582,7 @@
       <c r="F8" s="75"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A9" s="150"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="102" t="s">
         <v>137</v>
       </c>
@@ -2592,7 +2592,7 @@
       <c r="F9" s="75"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A10" s="150"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="102" t="s">
         <v>135</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="F10" s="75"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A11" s="150"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="102" t="s">
         <v>136</v>
       </c>
@@ -2612,7 +2612,7 @@
       <c r="F11" s="75"/>
     </row>
     <row r="12" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A12" s="150"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="102" t="s">
         <v>131</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="F12" s="75"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A13" s="150"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="102" t="s">
         <v>132</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="F13" s="75"/>
     </row>
     <row r="14" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A14" s="150"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="79"/>
       <c r="C14" s="74"/>
       <c r="D14" s="74"/>
@@ -2640,17 +2640,17 @@
       <c r="F14" s="75"/>
     </row>
     <row r="15" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A15" s="150"/>
-      <c r="B15" s="125" t="s">
+      <c r="A15" s="131"/>
+      <c r="B15" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="127"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A16" s="150"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="76" t="s">
         <v>133</v>
       </c>
@@ -2663,7 +2663,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A17" s="150"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="76" t="s">
         <v>134</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="F17" s="78"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A18" s="150"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="79"/>
       <c r="C18" s="74"/>
       <c r="D18" s="74"/>
@@ -2681,7 +2681,7 @@
       <c r="F18" s="75"/>
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A19" s="150"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="79"/>
       <c r="C19" s="74"/>
       <c r="D19" s="74"/>
@@ -2689,7 +2689,7 @@
       <c r="F19" s="75"/>
     </row>
     <row r="20" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A20" s="150"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="6" t="s">
         <v>90</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A21" s="150"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="79"/>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
@@ -2707,7 +2707,7 @@
       <c r="F21" s="75"/>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A22" s="150"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="79"/>
       <c r="C22" s="74"/>
       <c r="D22" s="74"/>
@@ -2718,18 +2718,18 @@
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="110"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="145"/>
     </row>
     <row r="24" spans="1:6" ht="24.75" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="128"/>
-      <c r="C24" s="129"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
       <c r="D24" s="7" t="s">
         <v>30</v>
       </c>
@@ -2740,84 +2740,95 @@
       <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="112"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="147"/>
     </row>
     <row r="26" spans="1:6" ht="24.75" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="116" t="s">
+      <c r="B26" s="140"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="117"/>
-      <c r="F26" s="118"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="153"/>
     </row>
     <row r="27" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A27" s="103" t="s">
+      <c r="A27" s="138" t="s">
         <v>89</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="119" t="s">
+      <c r="C27" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="120"/>
-      <c r="E27" s="121"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="156"/>
       <c r="F27" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A28" s="104"/>
-      <c r="B28" s="113" t="s">
+      <c r="A28" s="139"/>
+      <c r="B28" s="148" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="141"/>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A29" s="104"/>
-      <c r="B29" s="114"/>
+      <c r="A29" s="139"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="105"/>
-      <c r="E29" s="106"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="141"/>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="115"/>
+      <c r="A30" s="139"/>
+      <c r="B30" s="150"/>
       <c r="C30" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="106"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="141"/>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A31" s="104"/>
+      <c r="A31" s="139"/>
       <c r="B31" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="106"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="141"/>
       <c r="F31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B15:F15"/>
@@ -2830,17 +2841,6 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2867,30 +2867,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="27" customHeight="1">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="184"/>
     </row>
     <row r="2" spans="1:77" ht="13.5" customHeight="1">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="172" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="22"/>
@@ -2947,7 +2947,7 @@
       </c>
     </row>
     <row r="3" spans="1:77" ht="13.5" customHeight="1">
-      <c r="A3" s="158"/>
+      <c r="A3" s="172"/>
       <c r="B3" s="13" t="s">
         <v>117</v>
       </c>
@@ -3003,7 +3003,7 @@
       </c>
     </row>
     <row r="4" spans="1:77">
-      <c r="A4" s="158"/>
+      <c r="A4" s="172"/>
       <c r="B4" s="13" t="s">
         <v>38</v>
       </c>
@@ -3059,7 +3059,7 @@
       </c>
     </row>
     <row r="5" spans="1:77">
-      <c r="A5" s="158"/>
+      <c r="A5" s="172"/>
       <c r="B5" s="15" t="s">
         <v>44</v>
       </c>
@@ -3124,32 +3124,32 @@
       </c>
     </row>
     <row r="6" spans="1:77">
-      <c r="A6" s="159"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="161"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="N6" s="186"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="186"/>
+      <c r="Q6" s="186"/>
+      <c r="R6" s="186"/>
+      <c r="S6" s="187"/>
     </row>
     <row r="7" spans="1:77" ht="13.5" customHeight="1">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="165"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="16" t="s">
         <v>39</v>
       </c>
@@ -3200,9 +3200,9 @@
       </c>
     </row>
     <row r="8" spans="1:77" ht="13.5" customHeight="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="167"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="193"/>
       <c r="D8" s="16">
         <f>D5</f>
         <v>0</v>
@@ -3269,28 +3269,28 @@
       </c>
     </row>
     <row r="9" spans="1:77">
-      <c r="A9" s="171"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
-      <c r="M9" s="172"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="172"/>
-      <c r="S9" s="173"/>
+      <c r="A9" s="169"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="170"/>
+      <c r="S9" s="171"/>
     </row>
     <row r="10" spans="1:77">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="172" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -3350,7 +3350,7 @@
       <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:77">
-      <c r="A11" s="158"/>
+      <c r="A11" s="172"/>
       <c r="B11" s="16" t="str">
         <f>D3</f>
         <v>45UH主相</v>
@@ -3380,7 +3380,7 @@
       <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:77">
-      <c r="A12" s="158"/>
+      <c r="A12" s="172"/>
       <c r="B12" s="16" t="str">
         <f>D4</f>
         <v>45UH辅相</v>
@@ -3410,7 +3410,7 @@
       <c r="T12" s="11"/>
     </row>
     <row r="13" spans="1:77">
-      <c r="A13" s="158"/>
+      <c r="A13" s="172"/>
       <c r="B13" s="16">
         <f>D5</f>
         <v>0</v>
@@ -3440,7 +3440,7 @@
       <c r="T13" s="11"/>
     </row>
     <row r="14" spans="1:77">
-      <c r="A14" s="158"/>
+      <c r="A14" s="172"/>
       <c r="B14" s="16">
         <f>B13</f>
         <v>0</v>
@@ -3470,53 +3470,53 @@
       <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:77" ht="14.25" thickBot="1">
-      <c r="A15" s="174" t="s">
+      <c r="A15" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="174"/>
-      <c r="M15" s="174"/>
-      <c r="N15" s="174"/>
-      <c r="O15" s="174"/>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="174"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="174"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="173"/>
+      <c r="S15" s="173"/>
       <c r="T15" s="11"/>
     </row>
     <row r="16" spans="1:77" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A16" s="175" t="s">
+      <c r="A16" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="176"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="176"/>
-      <c r="M16" s="176"/>
-      <c r="N16" s="176"/>
-      <c r="O16" s="176"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="175" t="s">
+      <c r="B16" s="175"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="174" t="s">
         <v>124</v>
       </c>
-      <c r="R16" s="176"/>
-      <c r="S16" s="177"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="176"/>
       <c r="T16" s="50" t="s">
         <v>48</v>
       </c>
@@ -3629,7 +3629,7 @@
       <c r="BY16" s="67"/>
     </row>
     <row r="17" spans="1:77" ht="14.25">
-      <c r="A17" s="178" t="s">
+      <c r="A17" s="159" t="s">
         <v>120</v>
       </c>
       <c r="B17" s="82" t="s">
@@ -3641,26 +3641,26 @@
       <c r="D17" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="180" t="s">
+      <c r="E17" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180" t="s">
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180" t="s">
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="181" t="s">
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="O17" s="182"/>
-      <c r="P17" s="183"/>
+      <c r="O17" s="179"/>
+      <c r="P17" s="180"/>
       <c r="Q17" s="68" t="s">
         <v>101</v>
       </c>
@@ -3732,7 +3732,7 @@
       <c r="BY17" s="49"/>
     </row>
     <row r="18" spans="1:77" ht="14.25" thickBot="1">
-      <c r="A18" s="179"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="14">
         <f>D8</f>
         <v>0</v>
@@ -3853,24 +3853,24 @@
       <c r="BY18" s="33"/>
     </row>
     <row r="19" spans="1:77" ht="14.25" thickBot="1">
-      <c r="A19" s="184" t="s">
+      <c r="A19" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="185"/>
-      <c r="C19" s="185"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="185"/>
-      <c r="K19" s="185"/>
-      <c r="L19" s="185"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="185"/>
-      <c r="O19" s="185"/>
-      <c r="P19" s="185"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="182"/>
+      <c r="M19" s="182"/>
+      <c r="N19" s="182"/>
+      <c r="O19" s="182"/>
+      <c r="P19" s="182"/>
       <c r="W19" s="94" t="s">
         <v>105</v>
       </c>
@@ -3918,7 +3918,7 @@
       </c>
     </row>
     <row r="20" spans="1:77">
-      <c r="A20" s="178" t="s">
+      <c r="A20" s="159" t="s">
         <v>121</v>
       </c>
       <c r="B20" s="82" t="s">
@@ -3930,21 +3930,21 @@
       <c r="D20" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="180" t="s">
+      <c r="E20" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180" t="s">
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="180" t="s">
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="180"/>
-      <c r="M20" s="186"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="183"/>
       <c r="N20" s="82" t="s">
         <v>80</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="BY20" s="32"/>
     </row>
     <row r="21" spans="1:77">
-      <c r="A21" s="179"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="14">
         <f>B18</f>
         <v>0</v>
@@ -4125,24 +4125,24 @@
       <c r="BY21" s="32"/>
     </row>
     <row r="22" spans="1:77" ht="27.75" thickBot="1">
-      <c r="A22" s="168" t="s">
+      <c r="A22" s="166" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="169"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="169"/>
-      <c r="N22" s="169"/>
-      <c r="O22" s="169"/>
-      <c r="P22" s="170"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="167"/>
+      <c r="O22" s="167"/>
+      <c r="P22" s="168"/>
       <c r="Q22" s="89"/>
       <c r="R22" s="89"/>
       <c r="S22" s="89"/>
@@ -4201,7 +4201,7 @@
       <c r="BY22" s="32"/>
     </row>
     <row r="23" spans="1:77">
-      <c r="A23" s="187" t="s">
+      <c r="A23" s="157" t="s">
         <v>100</v>
       </c>
       <c r="B23" s="68" t="s">
@@ -4284,7 +4284,7 @@
       <c r="AK23" s="29"/>
     </row>
     <row r="24" spans="1:77" ht="14.25" thickBot="1">
-      <c r="A24" s="179"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="14">
         <f>E14</f>
         <v>0</v>
@@ -4385,52 +4385,52 @@
       <c r="AK24" s="31"/>
     </row>
     <row r="25" spans="1:77" ht="17.25" customHeight="1">
-      <c r="A25" s="178" t="s">
+      <c r="A25" s="159" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="189"/>
-      <c r="C25" s="189"/>
-      <c r="D25" s="189"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="189"/>
-      <c r="I25" s="189"/>
-      <c r="J25" s="189"/>
-      <c r="K25" s="189"/>
-      <c r="L25" s="189"/>
-      <c r="M25" s="189"/>
-      <c r="N25" s="189"/>
-      <c r="O25" s="189"/>
-      <c r="P25" s="189"/>
-      <c r="Q25" s="189"/>
-      <c r="R25" s="189"/>
-      <c r="S25" s="190"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="161"/>
+      <c r="S25" s="162"/>
     </row>
     <row r="26" spans="1:77" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A26" s="188"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="192"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="192"/>
-      <c r="M26" s="192"/>
-      <c r="N26" s="192"/>
-      <c r="O26" s="192"/>
-      <c r="P26" s="192"/>
-      <c r="Q26" s="192"/>
-      <c r="R26" s="192"/>
-      <c r="S26" s="193"/>
+      <c r="A26" s="160"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="164"/>
+      <c r="S26" s="165"/>
     </row>
     <row r="27" spans="1:77" ht="14.25" thickBot="1"/>
     <row r="28" spans="1:77">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="159" t="s">
         <v>122</v>
       </c>
       <c r="B28" s="82" t="s">
@@ -4444,7 +4444,7 @@
       </c>
     </row>
     <row r="29" spans="1:77">
-      <c r="A29" s="179"/>
+      <c r="A29" s="158"/>
       <c r="B29" s="13">
         <f>B24</f>
         <v>0</v>
@@ -4459,11 +4459,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:S25"/>
-    <mergeCell ref="B26:S26"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A9:S9"/>
     <mergeCell ref="A10:A14"/>
@@ -4480,11 +4480,11 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:M20"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:S6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:S25"/>
+    <mergeCell ref="B26:S26"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="U16:U17">
@@ -4498,10 +4498,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4521,6 +4521,11 @@
         <v>789</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>454545</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
